--- a/qPCR/HMBS and NFKB1.xlsx
+++ b/qPCR/HMBS and NFKB1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="115" documentId="14_{356FDF62-5703-478C-8C2C-57836FCBBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50BD055-F304-47A1-9984-6AAAC191AE46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4890" yWindow="345" windowWidth="19035" windowHeight="14880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1645,17 +1645,7 @@
     <cellStyle name="Normal 7" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21564,7 +21554,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E32:E80">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21597,8 +21587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23214,7 +23204,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E32:E80">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
